--- a/report_template/epb.xlsx
+++ b/report_template/epb.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -59,7 +49,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color rgb="FF0000FF"/>
+        <color indexed="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -80,7 +70,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0000FF"/>
+        <color indexed="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -110,7 +100,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color rgb="FF0000FF"/>
+        <color indexed="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -120,7 +110,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0000FF"/>
+        <color indexed="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -138,12 +128,6 @@
     <t>因應措施</t>
   </si>
   <si>
-    <t>已處理情形及處理結果</t>
-  </si>
-  <si>
-    <t>後續採取措施</t>
-  </si>
-  <si>
     <t>儘速完成空氣品質監測站保養作業，恢復持續監測作業。</t>
   </si>
   <si>
@@ -169,6 +153,14 @@
   </si>
   <si>
     <t>傳真：05-6811049</t>
+  </si>
+  <si>
+    <t>已處理情形及處理結果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>後續採取措施</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -178,7 +170,7 @@
       <rPr>
         <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -188,70 +180,81 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">    通報日期時間: </t>
+      <t xml:space="preserve">    通報日期時間：</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">                 </t>
+      <t xml:space="preserve">                        .                     </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">                         </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -259,7 +262,7 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -267,9 +270,8 @@
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -304,11 +306,207 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -318,8 +516,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thick">
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -328,111 +528,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,11 +561,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -463,8 +573,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -473,117 +585,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -592,183 +603,180 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,14 +784,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -830,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -865,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1042,21 +1042,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
@@ -1064,198 +1064,202 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="20.25" thickBot="1">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="38" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:4" ht="33">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" ht="60" customHeight="1" thickTop="1">
+      <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="12">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/epb.xlsx
+++ b/report_template/epb.xlsx
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>(含職稱)</t>
-  </si>
-  <si>
-    <t>簡槐志高工師</t>
   </si>
   <si>
     <t>報備</t>
@@ -208,6 +205,10 @@
       </rPr>
       <t xml:space="preserve">                         </t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊國賓副處長</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +398,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -405,66 +408,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -475,26 +425,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
@@ -509,22 +439,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -533,9 +448,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -545,6 +469,37 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,6 +535,52 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -643,32 +644,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,105 +690,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1070,76 +1071,76 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="33">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1">
       <c r="A10" s="5" t="s">
@@ -1148,118 +1149,118 @@
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="33.75" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" ht="33">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" thickTop="1">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B14:D16"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report_template/epb.xlsx
+++ b/report_template/epb.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\report_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>請傳真通報環保局</t>
   </si>
@@ -141,12 +146,6 @@
   </si>
   <si>
     <t>人員</t>
-  </si>
-  <si>
-    <t>簡槐志</t>
-  </si>
-  <si>
-    <t>電話：05-6818274</t>
   </si>
   <si>
     <t>傳真：05-6811049</t>
@@ -211,12 +210,16 @@
     <t>楊國賓副處長</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>電話：05-6818241</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,6 +647,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,24 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,6 +788,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1043,217 +1054,210 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" thickBot="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="55" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="33.75" thickBot="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="33">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>33</v>
+      <c r="B17" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" thickTop="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B17:B19"/>
@@ -1261,6 +1265,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:D12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
